--- a/modelos/OBASPA4451160/OBASPA4451160_Sell Out_metricas.xlsx
+++ b/modelos/OBASPA4451160/OBASPA4451160_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,19 @@
         <v>44999</v>
       </c>
       <c r="B2" t="n">
-        <v>8.151477067988498</v>
+        <v>8.152527066036308</v>
       </c>
       <c r="C2" t="n">
-        <v>4.051087139524732</v>
+        <v>4.420291159180493</v>
       </c>
       <c r="D2" t="n">
-        <v>11.77915836490417</v>
+        <v>12.04912764442973</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="3">
@@ -496,19 +496,19 @@
         <v>45006</v>
       </c>
       <c r="B3" t="n">
-        <v>9.203564689641496</v>
+        <v>9.204252312944197</v>
       </c>
       <c r="C3" t="n">
-        <v>5.224861172948553</v>
+        <v>5.460137136680735</v>
       </c>
       <c r="D3" t="n">
-        <v>13.43551280019855</v>
+        <v>13.32733627378925</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45003</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,19 @@
         <v>45015</v>
       </c>
       <c r="B4" t="n">
-        <v>8.501600583184359</v>
+        <v>8.502858557176102</v>
       </c>
       <c r="C4" t="n">
-        <v>4.611521622396357</v>
+        <v>4.403339354496784</v>
       </c>
       <c r="D4" t="n">
-        <v>12.63496867790228</v>
+        <v>12.54466744222542</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45010</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="5">
@@ -536,58 +536,78 @@
         <v>45017</v>
       </c>
       <c r="B5" t="n">
-        <v>5.295563853980182</v>
+        <v>5.298339549869899</v>
       </c>
       <c r="C5" t="n">
-        <v>1.645846141121709</v>
+        <v>1.158184126772379</v>
       </c>
       <c r="D5" t="n">
-        <v>9.420505414281964</v>
+        <v>9.195255697070072</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45010</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45027</v>
+        <v>45019</v>
       </c>
       <c r="B6" t="n">
-        <v>7.629754820837245</v>
+        <v>9.942030023319663</v>
       </c>
       <c r="C6" t="n">
-        <v>3.710833414258059</v>
+        <v>5.851216874753635</v>
       </c>
       <c r="D6" t="n">
-        <v>11.89008268299682</v>
+        <v>14.1190101266342</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45026</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7.263538550353545</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.326575620342316</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.0466749124197</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45040</v>
       </c>
-      <c r="B7" t="n">
-        <v>8.951276433978636</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5.269469428582583</v>
-      </c>
-      <c r="D7" t="n">
-        <v>13.2013812438819</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="B8" t="n">
+        <v>7.486162023940409</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.534069710880253</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.51615464532449</v>
+      </c>
+      <c r="E8" t="n">
         <v>14</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F8" s="2" t="n">
         <v>45033</v>
       </c>
     </row>
@@ -657,25 +677,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.39659113436775</v>
+        <v>13.74772797464322</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6297548208372445</v>
+        <v>3.707792871054587</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6297548208372445</v>
+        <v>3.105087932420478</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08996497440532066</v>
+        <v>0.4171271201022941</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08996497440532066</v>
+        <v>0.3728825333818225</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08609232739024185</v>
+        <v>0.3624196044745212</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="3">
@@ -683,25 +703,25 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>20.58906536112111</v>
+        <v>6.264300957229641</v>
       </c>
       <c r="C3" t="n">
-        <v>4.537517532872034</v>
+        <v>2.502858557176102</v>
       </c>
       <c r="D3" t="n">
-        <v>4.526043810826499</v>
+        <v>2.502858557176102</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6068381201953612</v>
+        <v>0.4171430928626838</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6068381201953612</v>
+        <v>0.4171430928626838</v>
       </c>
       <c r="G3" t="n">
-        <v>0.525179962636267</v>
+        <v>0.3451538256832372</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -709,22 +729,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>6.258005477788327</v>
+        <v>5.282364686496171</v>
       </c>
       <c r="C4" t="n">
-        <v>2.501600583184359</v>
+        <v>2.298339549869899</v>
       </c>
       <c r="D4" t="n">
-        <v>2.501600583184359</v>
+        <v>2.298339549869899</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4169334305307266</v>
+        <v>0.7661131832899665</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4169334305307266</v>
+        <v>0.7661131832899665</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3450102723260967</v>
+        <v>0.5539275745606077</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -735,25 +755,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>15.37961152689991</v>
+        <v>45.31093301151385</v>
       </c>
       <c r="C5" t="n">
-        <v>3.921684781685024</v>
+        <v>6.731339614929101</v>
       </c>
       <c r="D5" t="n">
-        <v>3.672143710000773</v>
+        <v>6.727933999689627</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5629055315926981</v>
+        <v>1.389642074460167</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5629055315926981</v>
+        <v>1.389642074460167</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4966975796724186</v>
+        <v>0.8395585469842022</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASPA4451160/OBASPA4451160_Sell Out_metricas.xlsx
+++ b/modelos/OBASPA4451160/OBASPA4451160_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,142 +473,122 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44999</v>
+        <v>45015</v>
       </c>
       <c r="B2" t="n">
-        <v>8.152527066036308</v>
+        <v>8.426565570462234</v>
       </c>
       <c r="C2" t="n">
-        <v>4.420291159180493</v>
+        <v>4.161174637534621</v>
       </c>
       <c r="D2" t="n">
-        <v>12.04912764442973</v>
+        <v>12.61403935966597</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44998</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45006</v>
+        <v>45017</v>
       </c>
       <c r="B3" t="n">
-        <v>9.204252312944197</v>
+        <v>5.167138731933816</v>
       </c>
       <c r="C3" t="n">
-        <v>5.460137136680735</v>
+        <v>0.9810271638164838</v>
       </c>
       <c r="D3" t="n">
-        <v>13.32733627378925</v>
+        <v>9.50875168986345</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45005</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45015</v>
+        <v>45019</v>
       </c>
       <c r="B4" t="n">
-        <v>8.502858557176102</v>
+        <v>8.809761211575628</v>
       </c>
       <c r="C4" t="n">
-        <v>4.403339354496784</v>
+        <v>4.57178120843876</v>
       </c>
       <c r="D4" t="n">
-        <v>12.54466744222542</v>
+        <v>13.00226456542688</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45017</v>
+        <v>45027</v>
       </c>
       <c r="B5" t="n">
-        <v>5.298339549869899</v>
+        <v>7.287682662197957</v>
       </c>
       <c r="C5" t="n">
-        <v>1.158184126772379</v>
+        <v>3.153194147047335</v>
       </c>
       <c r="D5" t="n">
-        <v>9.195255697070072</v>
+        <v>11.30453155975529</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45012</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45019</v>
+        <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>9.942030023319663</v>
+        <v>6.668757616941122</v>
       </c>
       <c r="C6" t="n">
-        <v>5.851216874753635</v>
+        <v>2.461724733999251</v>
       </c>
       <c r="D6" t="n">
-        <v>14.1190101266342</v>
+        <v>10.83475796620451</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45012</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45027</v>
+        <v>45051</v>
       </c>
       <c r="B7" t="n">
-        <v>7.263538550353545</v>
+        <v>6.158983251793149</v>
       </c>
       <c r="C7" t="n">
-        <v>3.326575620342316</v>
+        <v>1.713362009478656</v>
       </c>
       <c r="D7" t="n">
-        <v>11.0466749124197</v>
+        <v>10.41387451455736</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45026</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7.486162023940409</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.534069710880253</v>
-      </c>
-      <c r="D8" t="n">
-        <v>11.51615464532449</v>
-      </c>
-      <c r="E8" t="n">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>45033</v>
+        <v>45044</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,28 +654,28 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.888220467752707</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.426565570462234</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.426565570462234</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.404427595077039</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.404427595077039</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3364023902446361</v>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>13.74772797464322</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.707792871054587</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.105087932420478</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.4171271201022941</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.3728825333818225</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.3624196044745212</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="3">
@@ -703,48 +683,48 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6.264300957229641</v>
+        <v>53.74711487915882</v>
       </c>
       <c r="C3" t="n">
-        <v>2.502858557176102</v>
+        <v>7.331242383058878</v>
       </c>
       <c r="D3" t="n">
-        <v>2.502858557176102</v>
+        <v>7.331242383058878</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4171430928626838</v>
+        <v>0.5236601702184913</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4171430928626838</v>
+        <v>0.5236601702184913</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3451538256832372</v>
+        <v>0.7094032954404415</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>5.282364686496171</v>
+        <v>4.696490283447709</v>
       </c>
       <c r="C4" t="n">
-        <v>2.298339549869899</v>
+        <v>2.167138731933816</v>
       </c>
       <c r="D4" t="n">
-        <v>2.298339549869899</v>
+        <v>2.167138731933816</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7661131832899665</v>
+        <v>0.7223795773112721</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7661131832899665</v>
+        <v>0.7223795773112721</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5539275745606077</v>
+        <v>0.5306971763465271</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -752,28 +732,54 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>45.31093301151385</v>
+        <v>33.75332533552871</v>
       </c>
       <c r="C5" t="n">
-        <v>6.731339614929101</v>
+        <v>5.809761211575628</v>
       </c>
       <c r="D5" t="n">
-        <v>6.727933999689627</v>
+        <v>5.809761211575628</v>
       </c>
       <c r="E5" t="n">
-        <v>1.389642074460167</v>
+        <v>1.936587070525209</v>
       </c>
       <c r="F5" t="n">
-        <v>1.389642074460167</v>
+        <v>1.936587070525209</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8395585469842022</v>
+        <v>0.9838913941597816</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8.68995150141261</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.947872368575785</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.223332956995553</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.060294574533856</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.060294574533856</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5298778468164138</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASPA4451160/OBASPA4451160_Sell Out_metricas.xlsx
+++ b/modelos/OBASPA4451160/OBASPA4451160_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,122 +473,142 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45015</v>
+        <v>44999</v>
       </c>
       <c r="B2" t="n">
-        <v>8.426565570462234</v>
+        <v>8.065847030976707</v>
       </c>
       <c r="C2" t="n">
-        <v>4.161174637534621</v>
+        <v>4.114379073821019</v>
       </c>
       <c r="D2" t="n">
-        <v>12.61403935966597</v>
+        <v>12.3019341489677</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45013</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45017</v>
+        <v>45006</v>
       </c>
       <c r="B3" t="n">
-        <v>5.167138731933816</v>
+        <v>9.158432279321602</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9810271638164838</v>
+        <v>4.922081964132541</v>
       </c>
       <c r="D3" t="n">
-        <v>9.50875168986345</v>
+        <v>13.07312409407728</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45013</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45019</v>
+        <v>45015</v>
       </c>
       <c r="B4" t="n">
-        <v>8.809761211575628</v>
+        <v>8.426565570462234</v>
       </c>
       <c r="C4" t="n">
-        <v>4.57178120843876</v>
+        <v>4.09896302660147</v>
       </c>
       <c r="D4" t="n">
-        <v>13.00226456542688</v>
+        <v>12.70110950054214</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45013</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45027</v>
+        <v>45017</v>
       </c>
       <c r="B5" t="n">
-        <v>7.287682662197957</v>
+        <v>5.167138731933816</v>
       </c>
       <c r="C5" t="n">
-        <v>3.153194147047335</v>
+        <v>0.9611164106934063</v>
       </c>
       <c r="D5" t="n">
-        <v>11.30453155975529</v>
+        <v>9.55368389736331</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45020</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45040</v>
+        <v>45019</v>
       </c>
       <c r="B6" t="n">
-        <v>6.668757616941122</v>
+        <v>8.809761211575628</v>
       </c>
       <c r="C6" t="n">
-        <v>2.461724733999251</v>
+        <v>4.600332302471455</v>
       </c>
       <c r="D6" t="n">
-        <v>10.83475796620451</v>
+        <v>12.99111223951228</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45037</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45051</v>
+        <v>45027</v>
       </c>
       <c r="B7" t="n">
-        <v>6.158983251793149</v>
+        <v>7.287682662197957</v>
       </c>
       <c r="C7" t="n">
-        <v>1.713362009478656</v>
+        <v>3.079643471178797</v>
       </c>
       <c r="D7" t="n">
-        <v>10.41387451455736</v>
+        <v>11.46667330312068</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45044</v>
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.668757616941122</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.45806848278694</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.02417631204733</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45033</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,28 +674,28 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.888220467752707</v>
+        <v>13.90706195251818</v>
       </c>
       <c r="C2" t="n">
-        <v>2.426565570462234</v>
+        <v>3.729217337795986</v>
       </c>
       <c r="D2" t="n">
-        <v>2.426565570462234</v>
+        <v>3.126755970180951</v>
       </c>
       <c r="E2" t="n">
-        <v>0.404427595077039</v>
+        <v>0.417444735807288</v>
       </c>
       <c r="F2" t="n">
-        <v>0.404427595077039</v>
+        <v>0.3795502283864071</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3364023902446361</v>
+        <v>0.3653782404125739</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -683,30 +703,30 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>53.74711487915882</v>
+        <v>5.888220467752707</v>
       </c>
       <c r="C3" t="n">
-        <v>7.331242383058878</v>
+        <v>2.426565570462234</v>
       </c>
       <c r="D3" t="n">
-        <v>7.331242383058878</v>
+        <v>2.426565570462234</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5236601702184913</v>
+        <v>0.404427595077039</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5236601702184913</v>
+        <v>0.404427595077039</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7094032954404415</v>
+        <v>0.3364023902446361</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>4.696490283447709</v>
@@ -732,54 +752,28 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>33.75332533552871</v>
+        <v>43.75022010734376</v>
       </c>
       <c r="C5" t="n">
-        <v>5.809761211575628</v>
+        <v>6.614394916191787</v>
       </c>
       <c r="D5" t="n">
-        <v>5.809761211575628</v>
+        <v>6.570501797317253</v>
       </c>
       <c r="E5" t="n">
-        <v>1.936587070525209</v>
+        <v>1.23012362037185</v>
       </c>
       <c r="F5" t="n">
-        <v>1.936587070525209</v>
+        <v>1.23012362037185</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9838913941597816</v>
+        <v>0.8466473448001115</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>8.68995150141261</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.947872368575785</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.223332956995553</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.060294574533856</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.060294574533856</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5298778468164138</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
